--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Adm</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H2">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I2">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J2">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06806366666666668</v>
+        <v>0.1045313333333333</v>
       </c>
       <c r="N2">
-        <v>0.204191</v>
+        <v>0.313594</v>
       </c>
       <c r="O2">
-        <v>0.01337874269132675</v>
+        <v>0.1482480886574569</v>
       </c>
       <c r="P2">
-        <v>0.01993476300456479</v>
+        <v>0.2070264921079542</v>
       </c>
       <c r="Q2">
-        <v>0.8721357893675558</v>
+        <v>0.764386455157111</v>
       </c>
       <c r="R2">
-        <v>7.849222104308001</v>
+        <v>6.879478096413999</v>
       </c>
       <c r="S2">
-        <v>0.004644604435107477</v>
+        <v>0.0367657946053163</v>
       </c>
       <c r="T2">
-        <v>0.007099040579703686</v>
+        <v>0.05196412273008157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H3">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I3">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J3">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.019385</v>
+        <v>0.6005795</v>
       </c>
       <c r="N3">
-        <v>10.03877</v>
+        <v>1.201159</v>
       </c>
       <c r="O3">
-        <v>0.9866212573086733</v>
+        <v>0.8517519113425431</v>
       </c>
       <c r="P3">
-        <v>0.9800652369954352</v>
+        <v>0.7929735078920458</v>
       </c>
       <c r="Q3">
-        <v>64.31603693279334</v>
+        <v>4.391743799738167</v>
       </c>
       <c r="R3">
-        <v>385.89622159676</v>
+        <v>26.350462798429</v>
       </c>
       <c r="S3">
-        <v>0.3425183945302967</v>
+        <v>0.2112360173456466</v>
       </c>
       <c r="T3">
-        <v>0.3490145775294307</v>
+        <v>0.1990381630207914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -670,10 +667,10 @@
         <v>62.438235</v>
       </c>
       <c r="I4">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J4">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06806366666666668</v>
+        <v>0.1045313333333333</v>
       </c>
       <c r="N4">
-        <v>0.204191</v>
+        <v>0.313594</v>
       </c>
       <c r="O4">
-        <v>0.01337874269132675</v>
+        <v>0.1482480886574569</v>
       </c>
       <c r="P4">
-        <v>0.01993476300456479</v>
+        <v>0.2070264921079542</v>
       </c>
       <c r="Q4">
-        <v>1.416591738098333</v>
+        <v>2.175583985176667</v>
       </c>
       <c r="R4">
-        <v>12.749325642885</v>
+        <v>19.58025586659</v>
       </c>
       <c r="S4">
-        <v>0.007544132862933388</v>
+        <v>0.1046421916636139</v>
       </c>
       <c r="T4">
-        <v>0.01153082164065947</v>
+        <v>0.1478994197929418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -732,10 +729,10 @@
         <v>62.438235</v>
       </c>
       <c r="I5">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J5">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.019385</v>
+        <v>0.6005795</v>
       </c>
       <c r="N5">
-        <v>10.03877</v>
+        <v>1.201159</v>
       </c>
       <c r="O5">
-        <v>0.9866212573086733</v>
+        <v>0.8517519113425431</v>
       </c>
       <c r="P5">
-        <v>0.9800652369954352</v>
+        <v>0.7929735078920458</v>
       </c>
       <c r="Q5">
-        <v>104.467180061825</v>
+        <v>12.4997079857275</v>
       </c>
       <c r="R5">
-        <v>626.8030803709499</v>
+        <v>74.99824791436501</v>
       </c>
       <c r="S5">
-        <v>0.5563453922584477</v>
+        <v>0.6012164309416388</v>
       </c>
       <c r="T5">
-        <v>0.5668970050668399</v>
+        <v>0.5664991013191266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +770,31 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H6">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I6">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J6">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06806366666666668</v>
+        <v>0.1045313333333333</v>
       </c>
       <c r="N6">
-        <v>0.204191</v>
+        <v>0.313594</v>
       </c>
       <c r="O6">
-        <v>0.01337874269132675</v>
+        <v>0.1482480886574569</v>
       </c>
       <c r="P6">
-        <v>0.01993476300456479</v>
+        <v>0.2070264921079542</v>
       </c>
       <c r="Q6">
-        <v>0.03042498082144444</v>
+        <v>0.03167759337866666</v>
       </c>
       <c r="R6">
-        <v>0.273824827393</v>
+        <v>0.285098340408</v>
       </c>
       <c r="S6">
-        <v>0.0001620298152926571</v>
+        <v>0.001523642764590073</v>
       </c>
       <c r="T6">
-        <v>0.0002476542943441961</v>
+        <v>0.002153489689694092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H7">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I7">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J7">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.019385</v>
+        <v>0.6005795</v>
       </c>
       <c r="N7">
-        <v>10.03877</v>
+        <v>1.201159</v>
       </c>
       <c r="O7">
-        <v>0.9866212573086733</v>
+        <v>0.8517519113425431</v>
       </c>
       <c r="P7">
-        <v>0.9800652369954352</v>
+        <v>0.7929735078920458</v>
       </c>
       <c r="Q7">
-        <v>2.243703576951666</v>
+        <v>0.182002013998</v>
       </c>
       <c r="R7">
-        <v>13.46222146171</v>
+        <v>1.092012083988</v>
       </c>
       <c r="S7">
-        <v>0.01194895991154459</v>
+        <v>0.008754012606135233</v>
       </c>
       <c r="T7">
-        <v>0.01217558315711116</v>
+        <v>0.008248510884083451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +894,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H8">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I8">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J8">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06806366666666668</v>
+        <v>0.1045313333333333</v>
       </c>
       <c r="N8">
-        <v>0.204191</v>
+        <v>0.313594</v>
       </c>
       <c r="O8">
-        <v>0.01337874269132675</v>
+        <v>0.1482480886574569</v>
       </c>
       <c r="P8">
-        <v>0.01993476300456479</v>
+        <v>0.2070264921079542</v>
       </c>
       <c r="Q8">
-        <v>0.1894246215485</v>
+        <v>0.1105328953053333</v>
       </c>
       <c r="R8">
-        <v>1.136547729291</v>
+        <v>0.663197371832</v>
       </c>
       <c r="S8">
-        <v>0.001008790658620629</v>
+        <v>0.005316459623936613</v>
       </c>
       <c r="T8">
-        <v>0.00102792332078087</v>
+        <v>0.005009459895236749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -974,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H9">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I9">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J9">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,152 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.019385</v>
+        <v>0.6005795</v>
       </c>
       <c r="N9">
-        <v>10.03877</v>
+        <v>1.201159</v>
       </c>
       <c r="O9">
-        <v>0.9866212573086733</v>
+        <v>0.8517519113425431</v>
       </c>
       <c r="P9">
-        <v>0.9800652369954352</v>
+        <v>0.7929735078920458</v>
       </c>
       <c r="Q9">
-        <v>13.9692019339425</v>
+        <v>0.6350611714130001</v>
       </c>
       <c r="R9">
-        <v>55.87680773576999</v>
+        <v>2.540244685652</v>
       </c>
       <c r="S9">
-        <v>0.07439371030095113</v>
+        <v>0.0305454504491225</v>
       </c>
       <c r="T9">
-        <v>0.05053643791820097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.158782</v>
-      </c>
-      <c r="I10">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J10">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.06806366666666668</v>
-      </c>
-      <c r="N10">
-        <v>0.204191</v>
-      </c>
-      <c r="O10">
-        <v>0.01337874269132675</v>
-      </c>
-      <c r="P10">
-        <v>0.01993476300456479</v>
-      </c>
-      <c r="Q10">
-        <v>0.003602428373555556</v>
-      </c>
-      <c r="R10">
-        <v>0.03242185536200001</v>
-      </c>
-      <c r="S10">
-        <v>1.918491937259741E-05</v>
-      </c>
-      <c r="T10">
-        <v>2.932316907656331E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.158782</v>
-      </c>
-      <c r="I11">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J11">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.019385</v>
-      </c>
-      <c r="N11">
-        <v>10.03877</v>
-      </c>
-      <c r="O11">
-        <v>0.9866212573086733</v>
-      </c>
-      <c r="P11">
-        <v>0.9800652369954352</v>
-      </c>
-      <c r="Q11">
-        <v>0.2656626630233333</v>
-      </c>
-      <c r="R11">
-        <v>1.59397597814</v>
-      </c>
-      <c r="S11">
-        <v>0.001414800307433111</v>
-      </c>
-      <c r="T11">
-        <v>0.001441633323852332</v>
+        <v>0.01918773266804429</v>
       </c>
     </row>
   </sheetData>
